--- a/OpenPointInput.xlsx
+++ b/OpenPointInput.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21061\project\framework\framework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>From Date</t>
   </si>
@@ -39,6 +35,9 @@
   </si>
   <si>
     <t>1012, 2324</t>
+  </si>
+  <si>
+    <t>14/10/2015</t>
   </si>
 </sst>
 </file>
@@ -360,7 +359,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,8 +381,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42343</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
